--- a/src/test/resources/testdata/master.xlsx
+++ b/src/test/resources/testdata/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java program\7PageObjectModelExtended\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672930D7-9891-43CA-94BC-E6CA58F10748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E852884B-EBB2-4A4D-8E4C-2B61FD1ACD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>TestCases</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>harishr0691@gmail.com</t>
+  </si>
+  <si>
+    <t>ZohoCRMPageTest</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,6 +406,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -410,10 +421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,6 +476,27 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
